--- a/data/financial_report_1756422201.xlsx
+++ b/data/financial_report_1756422201.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,11 +454,16 @@
           <t>Источник</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Категория</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>10-08-2024</t>
+          <t>11-08-2024</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -467,25 +472,98 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>10</v>
+        <v>-0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>токаря</t>
-        </is>
-      </c>
+          <t>Что то не понятное</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr"/>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>11-08-2024</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Итого</t>
+          <t>Расход</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>10</v>
+        <v>-600</v>
       </c>
       <c r="D3" t="inlineStr"/>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>11-08-2024</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Продажи</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>11-08-2024</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Расход</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>-90</v>
+      </c>
+      <c r="D5" t="inlineStr"/>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Аренда</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>11-08-2024</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Приход</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>78</v>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Продажи</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
